--- a/programs/pipelining/pipeliningstructuralhazardloadinstructionswithwriteback.xlsx
+++ b/programs/pipelining/pipeliningstructuralhazardloadinstructionswithwriteback.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\cpu\programs\pipelining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44274A-E75F-408E-A4A4-33DB7C15E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C8E3C-E9CC-49DB-B8E4-41BC929D24DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Code" sheetId="1" r:id="rId1"/>
+    <sheet name="Pipelining" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Hex</t>
   </si>
@@ -138,13 +139,28 @@
     <t>MOV R2, #1 ROR 0</t>
   </si>
   <si>
-    <t>LOAD R3, [R0, #1]</t>
-  </si>
-  <si>
     <t>LOAD R1, [R0, #1]!</t>
   </si>
   <si>
-    <t>LOAD R2, [R0, #2]</t>
+    <t>LOAD R3, [R0], #1</t>
+  </si>
+  <si>
+    <t>LOAD R2, [R0], #2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>MOV R2, #0 ROR 0</t>
   </si>
 </sst>
 </file>
@@ -529,7 +545,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +802,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -801,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -834,11 +850,11 @@
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2" t="str">
         <f>DEC2HEX(C8*2^15 + D8*2^14 + E8*2^13 + F8*2^12 + G8*2^11 + H8*2^10 + I8*2^9 + J8*2^8 + K8*2^7 + L8*2^6 + M8*2^5 + N8*2^4 + O8 * 2 ^ 3 + P8  * 2^2 + Q8 * 2 + R8)</f>
-        <v>8A01</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -846,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -906,7 +922,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1011,14 +1027,14 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
       </c>
       <c r="S11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>A4A</v>
+        <v>A48</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1167,6 +1183,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="K6:P6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:M2"/>
@@ -1176,19 +1202,124 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:R5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8303367F-86F1-47C6-AF22-70C59577B968}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>